--- a/results/pvalue_OFFSIDES_rare_transporter_AUPR.xlsx
+++ b/results/pvalue_OFFSIDES_rare_transporter_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.461</t>
+          <t>0.217</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.459</t>
+          <t>0.229</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.858</t>
+          <t>0.904</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.563</t>
+          <t>0.808</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>1.465</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.818</t>
+          <t>1.418</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.191</t>
+          <t>0.129</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-0.259</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.002</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.684</t>
+          <t>7.152</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
